--- a/doc/MilestoneTable.xlsx
+++ b/doc/MilestoneTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D99200055\Desktop\First\sparkling-art\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlie\Documents\GitHub\sparkling-art\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,31 +24,160 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Task Name</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
     <t>% Complete</t>
   </si>
   <si>
-    <t>Notes (If behind, estimated impact on timelines and budget.)</t>
+    <t>WEEK 1: Roald Dahl Poetry &amp; Novel Website Requirements</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Team Comments</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Content Presentation</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Page Image Carousel </t>
+  </si>
+  <si>
+    <t>Marlie</t>
+  </si>
+  <si>
+    <t>Site Navigation</t>
+  </si>
+  <si>
+    <t>Afi</t>
+  </si>
+  <si>
+    <t>WEEK 3: Roald Dahl User Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story </t>
+  </si>
+  <si>
+    <t>Corresponding Requirement</t>
+  </si>
+  <si>
+    <t>Labeling Poems &amp; Quotes</t>
+  </si>
+  <si>
+    <t>Sections with documented quotes</t>
+  </si>
+  <si>
+    <t>Commenting on Poems &amp; Quotes</t>
+  </si>
+  <si>
+    <t>Sorting Poems &amp; Quotes</t>
+  </si>
+  <si>
+    <t>View Accomplishments</t>
+  </si>
+  <si>
+    <t>Watch Clips</t>
+  </si>
+  <si>
+    <t>View Portraits/Photos</t>
+  </si>
+  <si>
+    <t>Accessibility, Home Page Image Carousel</t>
+  </si>
+  <si>
+    <t>Purchase Samples</t>
+  </si>
+  <si>
+    <t>Site Navigation, Content Presentation</t>
+  </si>
+  <si>
+    <t>Pinning Photos on Pinterest</t>
+  </si>
+  <si>
+    <t>Sharing Poems on FB</t>
+  </si>
+  <si>
+    <t>Sharing Page on FB</t>
+  </si>
+  <si>
+    <t>Sharing Page on Twitter</t>
+  </si>
+  <si>
+    <t>News Feed Story 1</t>
+  </si>
+  <si>
+    <t>News Feed Story 2</t>
+  </si>
+  <si>
+    <t>News Feed Story 3</t>
+  </si>
+  <si>
+    <t>News Feed Story 4</t>
+  </si>
+  <si>
+    <t>WEEK 3: User Story Size Estimations (scale: 1,2,3,5,8,16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Consensus </t>
+  </si>
+  <si>
+    <t>% Completed</t>
+  </si>
+  <si>
+    <t>Content-Presentation</t>
+  </si>
+  <si>
+    <t>Home-Page-Image-Carousel</t>
+  </si>
+  <si>
+    <t>User-Stories:-Poems-and-Quotes</t>
+  </si>
+  <si>
+    <t>User-Stories:-Learn-About-Roald-Dahl</t>
+  </si>
+  <si>
+    <t>User-Story:-Pinning-Roald-Dahl-Photos-and-Images-on-Pinterest</t>
+  </si>
+  <si>
+    <t>User-Story:-Sharing-Roald-Dahl-Poems-on-Facebook</t>
+  </si>
+  <si>
+    <t>User-Story:-Sharing-the-PDG-for-RDF-Webpage-on-Facebook</t>
+  </si>
+  <si>
+    <t>User-Story:-Sharing-the-PDG-for-RDF-Webpage-on-Twitter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +185,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,13 +225,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -94,6 +256,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A28:G44" totalsRowShown="0">
+  <autoFilter ref="A28:G44"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="User Story "/>
+    <tableColumn id="2" name="Marlie"/>
+    <tableColumn id="3" name="Jack"/>
+    <tableColumn id="4" name="Thomas"/>
+    <tableColumn id="5" name="Afi "/>
+    <tableColumn id="6" name="Team Consensus "/>
+    <tableColumn id="7" name="% Complete"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table24" displayName="Table24" ref="A9:F25" totalsRowShown="0">
+  <autoFilter ref="A9:F25"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="User Story "/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="Completed"/>
+    <tableColumn id="4" name="Corresponding Requirement"/>
+    <tableColumn id="5" name="Notes"/>
+    <tableColumn id="6" name="ID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table245" displayName="Table245" ref="A2:F6" totalsRowShown="0">
+  <autoFilter ref="A2:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Requirements"/>
+    <tableColumn id="2" name="Author"/>
+    <tableColumn id="3" name="% Completed"/>
+    <tableColumn id="4" name="Notes"/>
+    <tableColumn id="5" name="Team Comments"/>
+    <tableColumn id="6" name="ID"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,41 +567,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A27:E27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F12" r:id="rId6"/>
+    <hyperlink ref="F13" r:id="rId7"/>
+    <hyperlink ref="F14" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F16" r:id="rId10"/>
+    <hyperlink ref="F17" r:id="rId11"/>
+    <hyperlink ref="F18" r:id="rId12"/>
+    <hyperlink ref="F19" r:id="rId13"/>
+    <hyperlink ref="F20" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/doc/MilestoneTable.xlsx
+++ b/doc/MilestoneTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlie\Documents\GitHub\sparkling-art\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marlie\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
